--- a/biology/Botanique/Angraecum_sanfordii/Angraecum_sanfordii.xlsx
+++ b/biology/Botanique/Angraecum_sanfordii/Angraecum_sanfordii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angraecum sanfordii P.J.Cribb &amp; B.J.Pollard est une espèce de plantes de la famille des Orchidaceae et du genre Angraecum. C'est une plante endémique du Cameroun où on la trouve sur le Mont Koupé et sur le volcan du mont Cameroun[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angraecum sanfordii P.J.Cribb &amp; B.J.Pollard est une espèce de plantes de la famille des Orchidaceae et du genre Angraecum. C'est une plante endémique du Cameroun où on la trouve sur le Mont Koupé et sur le volcan du mont Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique sanfordii rend hommage au botaniste William W. Sanford, spécialiste des Orchidées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique sanfordii rend hommage au botaniste William W. Sanford, spécialiste des Orchidées.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante épiphyte, on la trouve dans les zones montagneuses à une altitude comprise entre 800 et 2 000 mètres. Elle est inscrite dans la liste rouge des espèces menacées de l'Union internationale pour la conservation de la nature et dans l’Annexe II de la CITES[4],[5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante épiphyte, on la trouve dans les zones montagneuses à une altitude comprise entre 800 et 2 000 mètres. Elle est inscrite dans la liste rouge des espèces menacées de l'Union internationale pour la conservation de la nature et dans l’Annexe II de la CITES,
 </t>
         </is>
       </c>
